--- a/Crawling/music/crawled_data/outlier_data/2022-05-09_2022-05-15/naver_datalab/outliers/너의 모든 순간_성시경.xlsx
+++ b/Crawling/music/crawled_data/outlier_data/2022-05-09_2022-05-15/naver_datalab/outliers/너의 모든 순간_성시경.xlsx
@@ -17,7 +17,7 @@
     <t>url</t>
   </si>
   <si>
-    <t>http://datalab.naver.com/keyword/trendResult.naver?hashKey=N_76828a03dba5fb332446e086d4cb6227</t>
+    <t>http://datalab.naver.com/keyword/trendResult.naver?hashKey=N_7bfd7df4c9de633b112002a63fe0f3f4</t>
   </si>
   <si>
     <t>주제</t>
@@ -35,7 +35,7 @@
     <t>기간</t>
   </si>
   <si>
-    <t>일간 : 2022-04-16 ~ 2022-05-16</t>
+    <t>일간 : 2022-04-18 ~ 2022-05-18</t>
   </si>
   <si>
     <t>성별</t>
@@ -56,190 +56,190 @@
     <t>너의 모든 순간</t>
   </si>
   <si>
-    <t>2022-04-16</t>
-  </si>
-  <si>
-    <t>49.97854</t>
-  </si>
-  <si>
-    <t>2022-04-17</t>
+    <t>2022-04-18</t>
+  </si>
+  <si>
+    <t>47.09328</t>
+  </si>
+  <si>
+    <t>2022-04-19</t>
+  </si>
+  <si>
+    <t>46.86795</t>
+  </si>
+  <si>
+    <t>2022-04-20</t>
+  </si>
+  <si>
+    <t>47.22848</t>
+  </si>
+  <si>
+    <t>2022-04-21</t>
+  </si>
+  <si>
+    <t>55.29517</t>
+  </si>
+  <si>
+    <t>2022-04-22</t>
+  </si>
+  <si>
+    <t>65.38981</t>
+  </si>
+  <si>
+    <t>2022-04-23</t>
+  </si>
+  <si>
+    <t>80.53177</t>
+  </si>
+  <si>
+    <t>2022-04-24</t>
+  </si>
+  <si>
+    <t>72.73546</t>
+  </si>
+  <si>
+    <t>2022-04-25</t>
+  </si>
+  <si>
+    <t>72.14961</t>
+  </si>
+  <si>
+    <t>2022-04-26</t>
+  </si>
+  <si>
+    <t>66.87697</t>
+  </si>
+  <si>
+    <t>2022-04-27</t>
+  </si>
+  <si>
+    <t>70.66246</t>
+  </si>
+  <si>
+    <t>2022-04-28</t>
+  </si>
+  <si>
+    <t>72.01442</t>
+  </si>
+  <si>
+    <t>2022-04-29</t>
+  </si>
+  <si>
+    <t>75.48445</t>
+  </si>
+  <si>
+    <t>2022-04-30</t>
+  </si>
+  <si>
+    <t>83.01036</t>
+  </si>
+  <si>
+    <t>2022-05-01</t>
+  </si>
+  <si>
+    <t>79.315</t>
+  </si>
+  <si>
+    <t>2022-05-02</t>
+  </si>
+  <si>
+    <t>60.0721</t>
+  </si>
+  <si>
+    <t>2022-05-03</t>
+  </si>
+  <si>
+    <t>52.32086</t>
+  </si>
+  <si>
+    <t>2022-05-04</t>
+  </si>
+  <si>
+    <t>58.40468</t>
+  </si>
+  <si>
+    <t>2022-05-05</t>
+  </si>
+  <si>
+    <t>65.61514</t>
+  </si>
+  <si>
+    <t>2022-05-06</t>
+  </si>
+  <si>
+    <t>61.78458</t>
+  </si>
+  <si>
+    <t>2022-05-07</t>
+  </si>
+  <si>
+    <t>67.41775</t>
+  </si>
+  <si>
+    <t>2022-05-08</t>
+  </si>
+  <si>
+    <t>59.0356</t>
+  </si>
+  <si>
+    <t>2022-05-09</t>
+  </si>
+  <si>
+    <t>51.19423</t>
+  </si>
+  <si>
+    <t>2022-05-10</t>
+  </si>
+  <si>
+    <t>53.58269</t>
+  </si>
+  <si>
+    <t>2022-05-11</t>
+  </si>
+  <si>
+    <t>58.81027</t>
+  </si>
+  <si>
+    <t>2022-05-12</t>
+  </si>
+  <si>
+    <t>66.60657</t>
+  </si>
+  <si>
+    <t>2022-05-13</t>
+  </si>
+  <si>
+    <t>78.09824</t>
+  </si>
+  <si>
+    <t>2022-05-14</t>
   </si>
   <si>
     <t>100.0</t>
   </si>
   <si>
-    <t>2022-04-18</t>
-  </si>
-  <si>
-    <t>44.83054</t>
-  </si>
-  <si>
-    <t>2022-04-19</t>
-  </si>
-  <si>
-    <t>44.61604</t>
-  </si>
-  <si>
-    <t>2022-04-20</t>
-  </si>
-  <si>
-    <t>44.95924</t>
-  </si>
-  <si>
-    <t>2022-04-21</t>
-  </si>
-  <si>
-    <t>52.63835</t>
-  </si>
-  <si>
-    <t>2022-04-22</t>
-  </si>
-  <si>
-    <t>62.24796</t>
-  </si>
-  <si>
-    <t>2022-04-23</t>
-  </si>
-  <si>
-    <t>76.66237</t>
-  </si>
-  <si>
-    <t>2022-04-24</t>
-  </si>
-  <si>
-    <t>69.24066</t>
-  </si>
-  <si>
-    <t>2022-04-25</t>
-  </si>
-  <si>
-    <t>68.68296</t>
-  </si>
-  <si>
-    <t>2022-04-26</t>
-  </si>
-  <si>
-    <t>63.66366</t>
-  </si>
-  <si>
-    <t>2022-04-27</t>
-  </si>
-  <si>
-    <t>67.26726</t>
-  </si>
-  <si>
-    <t>2022-04-28</t>
-  </si>
-  <si>
-    <t>68.55426</t>
-  </si>
-  <si>
-    <t>2022-04-29</t>
-  </si>
-  <si>
-    <t>71.85757</t>
-  </si>
-  <si>
-    <t>2022-04-30</t>
-  </si>
-  <si>
-    <t>79.02187</t>
-  </si>
-  <si>
-    <t>2022-05-01</t>
-  </si>
-  <si>
-    <t>75.50407</t>
-  </si>
-  <si>
-    <t>2022-05-02</t>
-  </si>
-  <si>
-    <t>57.18575</t>
-  </si>
-  <si>
-    <t>2022-05-03</t>
-  </si>
-  <si>
-    <t>49.80694</t>
-  </si>
-  <si>
-    <t>2022-05-04</t>
-  </si>
-  <si>
-    <t>55.59845</t>
-  </si>
-  <si>
-    <t>2022-05-05</t>
-  </si>
-  <si>
-    <t>62.46246</t>
-  </si>
-  <si>
-    <t>2022-05-06</t>
-  </si>
-  <si>
-    <t>58.81595</t>
-  </si>
-  <si>
-    <t>2022-05-07</t>
-  </si>
-  <si>
-    <t>64.17846</t>
-  </si>
-  <si>
-    <t>2022-05-08</t>
-  </si>
-  <si>
-    <t>56.19905</t>
-  </si>
-  <si>
-    <t>2022-05-09</t>
-  </si>
-  <si>
-    <t>48.73444</t>
-  </si>
-  <si>
-    <t>2022-05-10</t>
-  </si>
-  <si>
-    <t>51.00815</t>
-  </si>
-  <si>
-    <t>2022-05-11</t>
-  </si>
-  <si>
-    <t>55.98455</t>
-  </si>
-  <si>
-    <t>2022-05-12</t>
-  </si>
-  <si>
-    <t>63.40626</t>
-  </si>
-  <si>
-    <t>2022-05-13</t>
-  </si>
-  <si>
-    <t>74.34577</t>
-  </si>
-  <si>
-    <t>2022-05-14</t>
-  </si>
-  <si>
-    <t>95.19519</t>
-  </si>
-  <si>
     <t>2022-05-15</t>
   </si>
   <si>
-    <t>81.03818</t>
+    <t>85.12843</t>
   </si>
   <si>
     <t>2022-05-16</t>
   </si>
   <si>
-    <t>61.99056</t>
+    <t>65.11942</t>
+  </si>
+  <si>
+    <t>2022-05-17</t>
+  </si>
+  <si>
+    <t>60.83821</t>
+  </si>
+  <si>
+    <t>2022-05-18</t>
+  </si>
+  <si>
+    <t>63.49707</t>
   </si>
 </sst>
 </file>
